--- a/1.Gestão do Projeto/Gestão de Projetos - SGLV.xlsx
+++ b/1.Gestão do Projeto/Gestão de Projetos - SGLV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFA8AEA-F1D8-443E-9DA5-B787D5784258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE1B37B-9155-49EC-BFEB-4A6552CBA492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sobre" sheetId="12" r:id="rId1"/>
@@ -1866,9 +1866,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
+          <xdr:colOff>215265</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>358140</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2427,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584EA1F6-5F11-49F0-BC95-54A382E64E25}">
   <dimension ref="A1:BK47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6861,7 +6861,7 @@
         <v>40</v>
       </c>
       <c r="D25" s="108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="109">
         <v>44597</v>
@@ -7338,7 +7338,9 @@
       <c r="C27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="108"/>
+      <c r="D27" s="108">
+        <v>1</v>
+      </c>
       <c r="E27" s="109">
         <v>44604</v>
       </c>
@@ -8049,7 +8051,9 @@
       <c r="C30" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="108"/>
+      <c r="D30" s="108">
+        <v>0</v>
+      </c>
       <c r="E30" s="109">
         <v>44611</v>
       </c>
@@ -12561,7 +12565,7 @@
       </c>
       <c r="C5" s="51">
         <f ca="1">IFERROR(IF(MIN(Marcos3[Início])=0,TODAY(),MIN(Marcos3[Início])),TODAY())</f>
-        <v>44592</v>
+        <v>44601</v>
       </c>
       <c r="E5" s="68"/>
       <c r="H5" s="39"/>
@@ -12607,7 +12611,7 @@
       <c r="N6" s="29"/>
       <c r="O6" s="29" t="str">
         <f ca="1">IF(TEXT(O7,"mmmm")=H6,"",TEXT(O7,"mmmm"))</f>
-        <v/>
+        <v>março</v>
       </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -12627,7 +12631,7 @@
       <c r="AB6" s="29"/>
       <c r="AC6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(AC7,"mmmm")=V6,TEXT(AC7,"mmmm")=O6,TEXT(AC7,"mmmm")=H6),"",TEXT(AC7,"mmmm"))</f>
-        <v>março</v>
+        <v/>
       </c>
       <c r="AD6" s="29"/>
       <c r="AE6" s="29"/>
@@ -12657,7 +12661,7 @@
       <c r="AW6" s="29"/>
       <c r="AX6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(AX7,"mmmm")=AQ6,TEXT(AX7,"mmmm")=AJ6,TEXT(AX7,"mmmm")=AC6,TEXT(AX7,"mmmm")=V6),"",TEXT(AX7,"mmmm"))</f>
-        <v/>
+        <v>abril</v>
       </c>
       <c r="AY6" s="29"/>
       <c r="AZ6" s="29"/>
@@ -12667,7 +12671,7 @@
       <c r="BD6" s="29"/>
       <c r="BE6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(BE7,"mmmm")=AX6,TEXT(BE7,"mmmm")=AQ6,TEXT(BE7,"mmmm")=AJ6,TEXT(BE7,"mmmm")=AC6),"",TEXT(BE7,"mmmm"))</f>
-        <v>abril</v>
+        <v/>
       </c>
       <c r="BF6" s="29"/>
       <c r="BG6" s="29"/>
@@ -12682,227 +12686,227 @@
       <c r="G7" s="23"/>
       <c r="H7" s="56">
         <f ca="1">IFERROR(Início_do_Projeto+Incremento_de_Rolagem,TODAY())</f>
-        <v>44605</v>
+        <v>44614</v>
       </c>
       <c r="I7" s="57">
         <f ca="1">H7+1</f>
-        <v>44606</v>
+        <v>44615</v>
       </c>
       <c r="J7" s="57">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>44607</v>
+        <v>44616</v>
       </c>
       <c r="K7" s="57">
         <f ca="1">J7+1</f>
-        <v>44608</v>
+        <v>44617</v>
       </c>
       <c r="L7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
       <c r="M7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44610</v>
+        <v>44619</v>
       </c>
       <c r="N7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44611</v>
+        <v>44620</v>
       </c>
       <c r="O7" s="57">
         <f ca="1">N7+1</f>
-        <v>44612</v>
+        <v>44621</v>
       </c>
       <c r="P7" s="57">
         <f ca="1">O7+1</f>
-        <v>44613</v>
+        <v>44622</v>
       </c>
       <c r="Q7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44614</v>
+        <v>44623</v>
       </c>
       <c r="R7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44615</v>
+        <v>44624</v>
       </c>
       <c r="S7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44616</v>
+        <v>44625</v>
       </c>
       <c r="T7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44617</v>
+        <v>44626</v>
       </c>
       <c r="U7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44618</v>
+        <v>44627</v>
       </c>
       <c r="V7" s="57">
         <f ca="1">U7+1</f>
-        <v>44619</v>
+        <v>44628</v>
       </c>
       <c r="W7" s="57">
         <f ca="1">V7+1</f>
-        <v>44620</v>
+        <v>44629</v>
       </c>
       <c r="X7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44621</v>
+        <v>44630</v>
       </c>
       <c r="Y7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44622</v>
+        <v>44631</v>
       </c>
       <c r="Z7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44623</v>
+        <v>44632</v>
       </c>
       <c r="AA7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44624</v>
+        <v>44633</v>
       </c>
       <c r="AB7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44625</v>
+        <v>44634</v>
       </c>
       <c r="AC7" s="57">
         <f ca="1">AB7+1</f>
-        <v>44626</v>
+        <v>44635</v>
       </c>
       <c r="AD7" s="57">
         <f ca="1">AC7+1</f>
-        <v>44627</v>
+        <v>44636</v>
       </c>
       <c r="AE7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44628</v>
+        <v>44637</v>
       </c>
       <c r="AF7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44629</v>
+        <v>44638</v>
       </c>
       <c r="AG7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44630</v>
+        <v>44639</v>
       </c>
       <c r="AH7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44631</v>
+        <v>44640</v>
       </c>
       <c r="AI7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44632</v>
+        <v>44641</v>
       </c>
       <c r="AJ7" s="57">
         <f ca="1">AI7+1</f>
-        <v>44633</v>
+        <v>44642</v>
       </c>
       <c r="AK7" s="57">
         <f ca="1">AJ7+1</f>
-        <v>44634</v>
+        <v>44643</v>
       </c>
       <c r="AL7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44635</v>
+        <v>44644</v>
       </c>
       <c r="AM7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44636</v>
+        <v>44645</v>
       </c>
       <c r="AN7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44637</v>
+        <v>44646</v>
       </c>
       <c r="AO7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44638</v>
+        <v>44647</v>
       </c>
       <c r="AP7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44639</v>
+        <v>44648</v>
       </c>
       <c r="AQ7" s="57">
         <f ca="1">AP7+1</f>
-        <v>44640</v>
+        <v>44649</v>
       </c>
       <c r="AR7" s="57">
         <f ca="1">AQ7+1</f>
-        <v>44641</v>
+        <v>44650</v>
       </c>
       <c r="AS7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44642</v>
+        <v>44651</v>
       </c>
       <c r="AT7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44643</v>
+        <v>44652</v>
       </c>
       <c r="AU7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44644</v>
+        <v>44653</v>
       </c>
       <c r="AV7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44645</v>
+        <v>44654</v>
       </c>
       <c r="AW7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44646</v>
+        <v>44655</v>
       </c>
       <c r="AX7" s="57">
         <f ca="1">AW7+1</f>
-        <v>44647</v>
+        <v>44656</v>
       </c>
       <c r="AY7" s="57">
         <f ca="1">AX7+1</f>
-        <v>44648</v>
+        <v>44657</v>
       </c>
       <c r="AZ7" s="57">
         <f t="shared" ref="AZ7:BD7" ca="1" si="1">AY7+1</f>
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="BA7" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>44650</v>
+        <v>44659</v>
       </c>
       <c r="BB7" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>44651</v>
+        <v>44660</v>
       </c>
       <c r="BC7" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>44652</v>
+        <v>44661</v>
       </c>
       <c r="BD7" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>44653</v>
+        <v>44662</v>
       </c>
       <c r="BE7" s="57">
         <f ca="1">BD7+1</f>
-        <v>44654</v>
+        <v>44663</v>
       </c>
       <c r="BF7" s="57">
         <f ca="1">BE7+1</f>
-        <v>44655</v>
+        <v>44664</v>
       </c>
       <c r="BG7" s="57">
         <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
-        <v>44656</v>
+        <v>44665</v>
       </c>
       <c r="BH7" s="57">
         <f t="shared" ca="1" si="2"/>
-        <v>44657</v>
+        <v>44666</v>
       </c>
       <c r="BI7" s="57">
         <f t="shared" ca="1" si="2"/>
-        <v>44658</v>
+        <v>44667</v>
       </c>
       <c r="BJ7" s="57">
         <f t="shared" ca="1" si="2"/>
-        <v>44659</v>
+        <v>44668</v>
       </c>
       <c r="BK7" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>44660</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="8" spans="1:63" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -12925,27 +12929,27 @@
       <c r="G8" s="74"/>
       <c r="H8" s="58" t="str">
         <f ca="1">LEFT(TEXT(H7,"ddd"),1)</f>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="I8" s="55" t="str">
         <f ca="1">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="J8" s="55" t="str">
         <f ca="1">LEFT(TEXT(J7,"ddd"),1)</f>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="K8" s="55" t="str">
         <f t="shared" ref="K8:BK8" ca="1" si="3">LEFT(TEXT(K7,"ddd"),1)</f>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="L8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="M8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="N8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12953,27 +12957,27 @@
       </c>
       <c r="O8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="P8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="Q8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="R8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="S8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="T8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="U8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12981,27 +12985,27 @@
       </c>
       <c r="V8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="W8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="X8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="Y8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="Z8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AA8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AB8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13009,27 +13013,27 @@
       </c>
       <c r="AC8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AD8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AE8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AF8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AG8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AH8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AI8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13037,27 +13041,27 @@
       </c>
       <c r="AJ8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AK8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AL8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AM8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AN8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AO8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AP8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13065,27 +13069,27 @@
       </c>
       <c r="AQ8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AR8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AS8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AT8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AU8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AV8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AW8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13093,27 +13097,27 @@
       </c>
       <c r="AX8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AY8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AZ8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BA8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BB8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BC8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BD8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13121,27 +13125,27 @@
       </c>
       <c r="BE8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BF8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BG8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BH8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BI8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BJ8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BK8" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13457,7 +13461,7 @@
       </c>
       <c r="E11" s="109">
         <f ca="1">TODAY()</f>
-        <v>44595</v>
+        <v>44604</v>
       </c>
       <c r="F11" s="17">
         <v>3</v>
@@ -13697,7 +13701,7 @@
       <c r="D12" s="112"/>
       <c r="E12" s="109">
         <f ca="1">TODAY()+5</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -13939,7 +13943,7 @@
       </c>
       <c r="E13" s="109">
         <f ca="1">TODAY()-3</f>
-        <v>44592</v>
+        <v>44601</v>
       </c>
       <c r="F13" s="17">
         <v>10</v>
@@ -14179,7 +14183,7 @@
       <c r="D14" s="112"/>
       <c r="E14" s="109">
         <f ca="1">TODAY()+20</f>
-        <v>44615</v>
+        <v>44624</v>
       </c>
       <c r="F14" s="17">
         <v>1</v>
@@ -14421,7 +14425,7 @@
       </c>
       <c r="E15" s="109">
         <f ca="1">TODAY()+6</f>
-        <v>44601</v>
+        <v>44610</v>
       </c>
       <c r="F15" s="17">
         <v>6</v>
@@ -14898,7 +14902,7 @@
       </c>
       <c r="E17" s="109">
         <f ca="1">TODAY()+6</f>
-        <v>44601</v>
+        <v>44610</v>
       </c>
       <c r="F17" s="17">
         <v>13</v>
@@ -15140,7 +15144,7 @@
       </c>
       <c r="E18" s="109">
         <f ca="1">TODAY()+7</f>
-        <v>44602</v>
+        <v>44611</v>
       </c>
       <c r="F18" s="17">
         <v>9</v>
@@ -15382,7 +15386,7 @@
       </c>
       <c r="E19" s="109">
         <f ca="1">TODAY()+15</f>
-        <v>44610</v>
+        <v>44619</v>
       </c>
       <c r="F19" s="17">
         <v>11</v>
@@ -15622,7 +15626,7 @@
       <c r="D20" s="112"/>
       <c r="E20" s="109">
         <f ca="1">TODAY()+24</f>
-        <v>44619</v>
+        <v>44628</v>
       </c>
       <c r="F20" s="17">
         <v>1</v>
@@ -15862,7 +15866,7 @@
       <c r="D21" s="111"/>
       <c r="E21" s="109">
         <f ca="1">TODAY()+25</f>
-        <v>44620</v>
+        <v>44629</v>
       </c>
       <c r="F21" s="17">
         <v>24</v>
@@ -16337,7 +16341,7 @@
       <c r="D23" s="111"/>
       <c r="E23" s="109">
         <f ca="1">TODAY()+15</f>
-        <v>44610</v>
+        <v>44619</v>
       </c>
       <c r="F23" s="17">
         <v>4</v>
@@ -16577,7 +16581,7 @@
       <c r="D24" s="112"/>
       <c r="E24" s="109">
         <f ca="1">TODAY()+19</f>
-        <v>44614</v>
+        <v>44623</v>
       </c>
       <c r="F24" s="17">
         <v>14</v>
@@ -16817,7 +16821,7 @@
       <c r="D25" s="111"/>
       <c r="E25" s="109">
         <f ca="1">TODAY()+35</f>
-        <v>44630</v>
+        <v>44639</v>
       </c>
       <c r="F25" s="17">
         <v>6</v>
@@ -17057,7 +17061,7 @@
       <c r="D26" s="112"/>
       <c r="E26" s="109">
         <f ca="1">TODAY()+48</f>
-        <v>44643</v>
+        <v>44652</v>
       </c>
       <c r="F26" s="17">
         <v>3</v>
@@ -17297,7 +17301,7 @@
       <c r="D27" s="111"/>
       <c r="E27" s="109">
         <f ca="1">TODAY()+40</f>
-        <v>44635</v>
+        <v>44644</v>
       </c>
       <c r="F27" s="17">
         <v>19</v>
@@ -17772,7 +17776,7 @@
       <c r="D29" s="111"/>
       <c r="E29" s="109">
         <f ca="1">TODAY()+37</f>
-        <v>44632</v>
+        <v>44641</v>
       </c>
       <c r="F29" s="17">
         <v>15</v>
@@ -18012,7 +18016,7 @@
       <c r="D30" s="112"/>
       <c r="E30" s="109">
         <f ca="1">TODAY()+29</f>
-        <v>44624</v>
+        <v>44633</v>
       </c>
       <c r="F30" s="17">
         <v>5</v>
@@ -18252,7 +18256,7 @@
       <c r="D31" s="111"/>
       <c r="E31" s="109">
         <f ca="1">TODAY()+80</f>
-        <v>44675</v>
+        <v>44684</v>
       </c>
       <c r="F31" s="17">
         <v>5</v>
@@ -19635,7 +19639,7 @@
       </c>
       <c r="C5" s="51">
         <f ca="1">IFERROR(IF(MIN(Marcos[Início])=0,TODAY(),MIN(Marcos[Início])),TODAY())</f>
-        <v>44592</v>
+        <v>44601</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="68"/>
@@ -19728,7 +19732,7 @@
       <c r="N6" s="29"/>
       <c r="O6" s="29" t="str">
         <f ca="1">IF(TEXT(O7,"mmmm")=H6,"",TEXT(O7,"mmmm"))</f>
-        <v/>
+        <v>março</v>
       </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -19748,7 +19752,7 @@
       <c r="AB6" s="29"/>
       <c r="AC6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(AC7,"mmmm")=V6,TEXT(AC7,"mmmm")=O6,TEXT(AC7,"mmmm")=H6),"",TEXT(AC7,"mmmm"))</f>
-        <v>março</v>
+        <v/>
       </c>
       <c r="AD6" s="29"/>
       <c r="AE6" s="29"/>
@@ -19778,7 +19782,7 @@
       <c r="AW6" s="29"/>
       <c r="AX6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(AX7,"mmmm")=AQ6,TEXT(AX7,"mmmm")=AJ6,TEXT(AX7,"mmmm")=AC6,TEXT(AX7,"mmmm")=V6),"",TEXT(AX7,"mmmm"))</f>
-        <v/>
+        <v>abril</v>
       </c>
       <c r="AY6" s="29"/>
       <c r="AZ6" s="29"/>
@@ -19788,7 +19792,7 @@
       <c r="BD6" s="29"/>
       <c r="BE6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(BE7,"mmmm")=AX6,TEXT(BE7,"mmmm")=AQ6,TEXT(BE7,"mmmm")=AJ6,TEXT(BE7,"mmmm")=AC6),"",TEXT(BE7,"mmmm"))</f>
-        <v>abril</v>
+        <v/>
       </c>
       <c r="BF6" s="29"/>
       <c r="BG6" s="29"/>
@@ -19806,227 +19810,227 @@
       <c r="G7" s="23"/>
       <c r="H7" s="59">
         <f ca="1">IFERROR(Início_do_Projeto+Incremento_de_Rolagem,TODAY())</f>
-        <v>44605</v>
+        <v>44614</v>
       </c>
       <c r="I7" s="61">
         <f ca="1">H7+1</f>
-        <v>44606</v>
+        <v>44615</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>44607</v>
+        <v>44616</v>
       </c>
       <c r="K7" s="61">
         <f ca="1">J7+1</f>
-        <v>44608</v>
+        <v>44617</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44610</v>
+        <v>44619</v>
       </c>
       <c r="N7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44611</v>
+        <v>44620</v>
       </c>
       <c r="O7" s="61">
         <f ca="1">N7+1</f>
-        <v>44612</v>
+        <v>44621</v>
       </c>
       <c r="P7" s="61">
         <f ca="1">O7+1</f>
-        <v>44613</v>
+        <v>44622</v>
       </c>
       <c r="Q7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44614</v>
+        <v>44623</v>
       </c>
       <c r="R7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44615</v>
+        <v>44624</v>
       </c>
       <c r="S7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44616</v>
+        <v>44625</v>
       </c>
       <c r="T7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44617</v>
+        <v>44626</v>
       </c>
       <c r="U7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44618</v>
+        <v>44627</v>
       </c>
       <c r="V7" s="61">
         <f ca="1">U7+1</f>
-        <v>44619</v>
+        <v>44628</v>
       </c>
       <c r="W7" s="61">
         <f ca="1">V7+1</f>
-        <v>44620</v>
+        <v>44629</v>
       </c>
       <c r="X7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44621</v>
+        <v>44630</v>
       </c>
       <c r="Y7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44622</v>
+        <v>44631</v>
       </c>
       <c r="Z7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44623</v>
+        <v>44632</v>
       </c>
       <c r="AA7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44624</v>
+        <v>44633</v>
       </c>
       <c r="AB7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44625</v>
+        <v>44634</v>
       </c>
       <c r="AC7" s="61">
         <f ca="1">AB7+1</f>
-        <v>44626</v>
+        <v>44635</v>
       </c>
       <c r="AD7" s="61">
         <f ca="1">AC7+1</f>
-        <v>44627</v>
+        <v>44636</v>
       </c>
       <c r="AE7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44628</v>
+        <v>44637</v>
       </c>
       <c r="AF7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44629</v>
+        <v>44638</v>
       </c>
       <c r="AG7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44630</v>
+        <v>44639</v>
       </c>
       <c r="AH7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44631</v>
+        <v>44640</v>
       </c>
       <c r="AI7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44632</v>
+        <v>44641</v>
       </c>
       <c r="AJ7" s="61">
         <f ca="1">AI7+1</f>
-        <v>44633</v>
+        <v>44642</v>
       </c>
       <c r="AK7" s="61">
         <f ca="1">AJ7+1</f>
-        <v>44634</v>
+        <v>44643</v>
       </c>
       <c r="AL7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44635</v>
+        <v>44644</v>
       </c>
       <c r="AM7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44636</v>
+        <v>44645</v>
       </c>
       <c r="AN7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44637</v>
+        <v>44646</v>
       </c>
       <c r="AO7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44638</v>
+        <v>44647</v>
       </c>
       <c r="AP7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44639</v>
+        <v>44648</v>
       </c>
       <c r="AQ7" s="61">
         <f ca="1">AP7+1</f>
-        <v>44640</v>
+        <v>44649</v>
       </c>
       <c r="AR7" s="61">
         <f ca="1">AQ7+1</f>
-        <v>44641</v>
+        <v>44650</v>
       </c>
       <c r="AS7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44642</v>
+        <v>44651</v>
       </c>
       <c r="AT7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44643</v>
+        <v>44652</v>
       </c>
       <c r="AU7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44644</v>
+        <v>44653</v>
       </c>
       <c r="AV7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44645</v>
+        <v>44654</v>
       </c>
       <c r="AW7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44646</v>
+        <v>44655</v>
       </c>
       <c r="AX7" s="61">
         <f ca="1">AW7+1</f>
-        <v>44647</v>
+        <v>44656</v>
       </c>
       <c r="AY7" s="61">
         <f ca="1">AX7+1</f>
-        <v>44648</v>
+        <v>44657</v>
       </c>
       <c r="AZ7" s="61">
         <f t="shared" ref="AZ7:BD7" ca="1" si="1">AY7+1</f>
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="BA7" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>44650</v>
+        <v>44659</v>
       </c>
       <c r="BB7" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>44651</v>
+        <v>44660</v>
       </c>
       <c r="BC7" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>44652</v>
+        <v>44661</v>
       </c>
       <c r="BD7" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>44653</v>
+        <v>44662</v>
       </c>
       <c r="BE7" s="61">
         <f ca="1">BD7+1</f>
-        <v>44654</v>
+        <v>44663</v>
       </c>
       <c r="BF7" s="61">
         <f ca="1">BE7+1</f>
-        <v>44655</v>
+        <v>44664</v>
       </c>
       <c r="BG7" s="61">
         <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
-        <v>44656</v>
+        <v>44665</v>
       </c>
       <c r="BH7" s="61">
         <f t="shared" ca="1" si="2"/>
-        <v>44657</v>
+        <v>44666</v>
       </c>
       <c r="BI7" s="61">
         <f t="shared" ca="1" si="2"/>
-        <v>44658</v>
+        <v>44667</v>
       </c>
       <c r="BJ7" s="61">
         <f t="shared" ca="1" si="2"/>
-        <v>44659</v>
+        <v>44668</v>
       </c>
       <c r="BK7" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>44660</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="8" spans="1:63" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -20049,27 +20053,27 @@
       <c r="G8" s="64"/>
       <c r="H8" s="63" t="str">
         <f ca="1">LEFT(TEXT(H7,"ddd"),1)</f>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="I8" s="62" t="str">
         <f ca="1">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="J8" s="62" t="str">
         <f ca="1">LEFT(TEXT(J7,"ddd"),1)</f>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="K8" s="62" t="str">
         <f t="shared" ref="K8:AM8" ca="1" si="3">LEFT(TEXT(K7,"ddd"),1)</f>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="L8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="M8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="N8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20077,27 +20081,27 @@
       </c>
       <c r="O8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="P8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="Q8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="R8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="S8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="T8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="U8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20105,27 +20109,27 @@
       </c>
       <c r="V8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="W8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="X8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="Y8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="Z8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AA8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AB8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20133,27 +20137,27 @@
       </c>
       <c r="AC8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AD8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AE8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AF8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AG8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AH8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AI8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20161,27 +20165,27 @@
       </c>
       <c r="AJ8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AK8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AL8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AM8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AN8" s="62" t="str">
         <f t="shared" ref="AN8:BK8" ca="1" si="4">LEFT(TEXT(AN7,"ddd"),1)</f>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AO8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AP8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -20189,27 +20193,27 @@
       </c>
       <c r="AQ8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AR8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AS8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AT8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AU8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AV8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AW8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -20217,27 +20221,27 @@
       </c>
       <c r="AX8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AY8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AZ8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BA8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BB8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BC8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BD8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -20245,27 +20249,27 @@
       </c>
       <c r="BE8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BF8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BG8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BH8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BI8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BJ8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BK8" s="60" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -20582,7 +20586,7 @@
       </c>
       <c r="E11" s="109">
         <f ca="1">TODAY()</f>
-        <v>44595</v>
+        <v>44604</v>
       </c>
       <c r="F11" s="17">
         <v>3</v>
@@ -20822,7 +20826,7 @@
       <c r="D12" s="113"/>
       <c r="E12" s="109">
         <f ca="1">TODAY()+5</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -21064,7 +21068,7 @@
       </c>
       <c r="E13" s="109">
         <f ca="1">TODAY()-3</f>
-        <v>44592</v>
+        <v>44601</v>
       </c>
       <c r="F13" s="17">
         <v>10</v>
@@ -21304,7 +21308,7 @@
       <c r="D14" s="113"/>
       <c r="E14" s="109">
         <f ca="1">TODAY()+20</f>
-        <v>44615</v>
+        <v>44624</v>
       </c>
       <c r="F14" s="17">
         <v>1</v>
@@ -21546,7 +21550,7 @@
       </c>
       <c r="E15" s="109">
         <f ca="1">TODAY()+6</f>
-        <v>44601</v>
+        <v>44610</v>
       </c>
       <c r="F15" s="17">
         <v>6</v>
@@ -22023,7 +22027,7 @@
       </c>
       <c r="E17" s="109">
         <f ca="1">TODAY()+6</f>
-        <v>44601</v>
+        <v>44610</v>
       </c>
       <c r="F17" s="17">
         <v>13</v>
@@ -22265,7 +22269,7 @@
       </c>
       <c r="E18" s="109">
         <f ca="1">TODAY()+7</f>
-        <v>44602</v>
+        <v>44611</v>
       </c>
       <c r="F18" s="17">
         <v>9</v>
@@ -22507,7 +22511,7 @@
       </c>
       <c r="E19" s="109">
         <f ca="1">TODAY()+15</f>
-        <v>44610</v>
+        <v>44619</v>
       </c>
       <c r="F19" s="17">
         <v>11</v>
@@ -22747,7 +22751,7 @@
       <c r="D20" s="113"/>
       <c r="E20" s="109">
         <f ca="1">TODAY()+24</f>
-        <v>44619</v>
+        <v>44628</v>
       </c>
       <c r="F20" s="17">
         <v>1</v>
@@ -22987,7 +22991,7 @@
       <c r="D21" s="113"/>
       <c r="E21" s="109">
         <f ca="1">TODAY()+25</f>
-        <v>44620</v>
+        <v>44629</v>
       </c>
       <c r="F21" s="17">
         <v>24</v>
@@ -23462,7 +23466,7 @@
       <c r="D23" s="113"/>
       <c r="E23" s="109">
         <f ca="1">TODAY()+15</f>
-        <v>44610</v>
+        <v>44619</v>
       </c>
       <c r="F23" s="17">
         <v>4</v>
@@ -23702,7 +23706,7 @@
       <c r="D24" s="113"/>
       <c r="E24" s="109">
         <f ca="1">TODAY()+19</f>
-        <v>44614</v>
+        <v>44623</v>
       </c>
       <c r="F24" s="17">
         <v>14</v>
@@ -23942,7 +23946,7 @@
       <c r="D25" s="113"/>
       <c r="E25" s="109">
         <f ca="1">TODAY()+35</f>
-        <v>44630</v>
+        <v>44639</v>
       </c>
       <c r="F25" s="17">
         <v>6</v>
@@ -24182,7 +24186,7 @@
       <c r="D26" s="113"/>
       <c r="E26" s="109">
         <f ca="1">TODAY()+48</f>
-        <v>44643</v>
+        <v>44652</v>
       </c>
       <c r="F26" s="17">
         <v>3</v>
@@ -24422,7 +24426,7 @@
       <c r="D27" s="113"/>
       <c r="E27" s="109">
         <f ca="1">TODAY()+40</f>
-        <v>44635</v>
+        <v>44644</v>
       </c>
       <c r="F27" s="17">
         <v>19</v>
@@ -24897,7 +24901,7 @@
       <c r="D29" s="113"/>
       <c r="E29" s="109">
         <f ca="1">TODAY()+37</f>
-        <v>44632</v>
+        <v>44641</v>
       </c>
       <c r="F29" s="17">
         <v>15</v>
@@ -25137,7 +25141,7 @@
       <c r="D30" s="113"/>
       <c r="E30" s="109">
         <f ca="1">TODAY()+29</f>
-        <v>44624</v>
+        <v>44633</v>
       </c>
       <c r="F30" s="17">
         <v>5</v>
@@ -25377,7 +25381,7 @@
       <c r="D31" s="113"/>
       <c r="E31" s="109">
         <f ca="1">TODAY()+80</f>
-        <v>44675</v>
+        <v>44684</v>
       </c>
       <c r="F31" s="17">
         <v>5</v>

--- a/1.Gestão do Projeto/Gestão de Projetos - SGLV.xlsx
+++ b/1.Gestão do Projeto/Gestão de Projetos - SGLV.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE1B37B-9155-49EC-BFEB-4A6552CBA492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F649F9DD-9DB2-4AE3-B25A-E306E7A12FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sobre" sheetId="12" r:id="rId1"/>
@@ -1866,9 +1866,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>215265</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>358140</xdr:rowOff>
+          <xdr:rowOff>350520</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2428,7 +2428,7 @@
   <dimension ref="A1:BK47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -8052,7 +8052,7 @@
         <v>40</v>
       </c>
       <c r="D30" s="108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="109">
         <v>44611</v>
@@ -8529,7 +8529,9 @@
       <c r="C32" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="108"/>
+      <c r="D32" s="108">
+        <v>1</v>
+      </c>
       <c r="E32" s="109">
         <v>44618</v>
       </c>
@@ -8770,7 +8772,9 @@
       <c r="C33" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="108"/>
+      <c r="D33" s="108">
+        <v>1</v>
+      </c>
       <c r="E33" s="109">
         <v>44618</v>
       </c>
@@ -9011,7 +9015,9 @@
       <c r="C34" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="108"/>
+      <c r="D34" s="108">
+        <v>10</v>
+      </c>
       <c r="E34" s="109">
         <v>44618</v>
       </c>
@@ -9487,7 +9493,9 @@
       <c r="C36" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="108"/>
+      <c r="D36" s="108">
+        <v>1</v>
+      </c>
       <c r="E36" s="109">
         <v>44621</v>
       </c>
@@ -9963,7 +9971,9 @@
       <c r="C38" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="108"/>
+      <c r="D38" s="108">
+        <v>1</v>
+      </c>
       <c r="E38" s="109">
         <v>44622</v>
       </c>
@@ -12565,7 +12575,7 @@
       </c>
       <c r="C5" s="51">
         <f ca="1">IFERROR(IF(MIN(Marcos3[Início])=0,TODAY(),MIN(Marcos3[Início])),TODAY())</f>
-        <v>44601</v>
+        <v>44631</v>
       </c>
       <c r="E5" s="68"/>
       <c r="H5" s="39"/>
@@ -12601,7 +12611,7 @@
       </c>
       <c r="H6" s="84" t="str">
         <f ca="1">TEXT(H7,"mmmm")</f>
-        <v>fevereiro</v>
+        <v>março</v>
       </c>
       <c r="I6" s="84"/>
       <c r="J6" s="84"/>
@@ -12611,7 +12621,7 @@
       <c r="N6" s="29"/>
       <c r="O6" s="29" t="str">
         <f ca="1">IF(TEXT(O7,"mmmm")=H6,"",TEXT(O7,"mmmm"))</f>
-        <v>março</v>
+        <v/>
       </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -12621,7 +12631,7 @@
       <c r="U6" s="29"/>
       <c r="V6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(V7,"mmmm")=O6,TEXT(V7,"mmmm")=H6),"",TEXT(V7,"mmmm"))</f>
-        <v/>
+        <v>abril</v>
       </c>
       <c r="W6" s="29"/>
       <c r="X6" s="29"/>
@@ -12661,7 +12671,7 @@
       <c r="AW6" s="29"/>
       <c r="AX6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(AX7,"mmmm")=AQ6,TEXT(AX7,"mmmm")=AJ6,TEXT(AX7,"mmmm")=AC6,TEXT(AX7,"mmmm")=V6),"",TEXT(AX7,"mmmm"))</f>
-        <v>abril</v>
+        <v>maio</v>
       </c>
       <c r="AY6" s="29"/>
       <c r="AZ6" s="29"/>
@@ -12686,227 +12696,227 @@
       <c r="G7" s="23"/>
       <c r="H7" s="56">
         <f ca="1">IFERROR(Início_do_Projeto+Incremento_de_Rolagem,TODAY())</f>
-        <v>44614</v>
+        <v>44644</v>
       </c>
       <c r="I7" s="57">
         <f ca="1">H7+1</f>
-        <v>44615</v>
+        <v>44645</v>
       </c>
       <c r="J7" s="57">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>44616</v>
+        <v>44646</v>
       </c>
       <c r="K7" s="57">
         <f ca="1">J7+1</f>
-        <v>44617</v>
+        <v>44647</v>
       </c>
       <c r="L7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44618</v>
+        <v>44648</v>
       </c>
       <c r="M7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44619</v>
+        <v>44649</v>
       </c>
       <c r="N7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44620</v>
+        <v>44650</v>
       </c>
       <c r="O7" s="57">
         <f ca="1">N7+1</f>
-        <v>44621</v>
+        <v>44651</v>
       </c>
       <c r="P7" s="57">
         <f ca="1">O7+1</f>
-        <v>44622</v>
+        <v>44652</v>
       </c>
       <c r="Q7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44623</v>
+        <v>44653</v>
       </c>
       <c r="R7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44624</v>
+        <v>44654</v>
       </c>
       <c r="S7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44625</v>
+        <v>44655</v>
       </c>
       <c r="T7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44626</v>
+        <v>44656</v>
       </c>
       <c r="U7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44627</v>
+        <v>44657</v>
       </c>
       <c r="V7" s="57">
         <f ca="1">U7+1</f>
-        <v>44628</v>
+        <v>44658</v>
       </c>
       <c r="W7" s="57">
         <f ca="1">V7+1</f>
-        <v>44629</v>
+        <v>44659</v>
       </c>
       <c r="X7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44630</v>
+        <v>44660</v>
       </c>
       <c r="Y7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44631</v>
+        <v>44661</v>
       </c>
       <c r="Z7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44632</v>
+        <v>44662</v>
       </c>
       <c r="AA7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44633</v>
+        <v>44663</v>
       </c>
       <c r="AB7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44634</v>
+        <v>44664</v>
       </c>
       <c r="AC7" s="57">
         <f ca="1">AB7+1</f>
-        <v>44635</v>
+        <v>44665</v>
       </c>
       <c r="AD7" s="57">
         <f ca="1">AC7+1</f>
-        <v>44636</v>
+        <v>44666</v>
       </c>
       <c r="AE7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44637</v>
+        <v>44667</v>
       </c>
       <c r="AF7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44638</v>
+        <v>44668</v>
       </c>
       <c r="AG7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44639</v>
+        <v>44669</v>
       </c>
       <c r="AH7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44640</v>
+        <v>44670</v>
       </c>
       <c r="AI7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44641</v>
+        <v>44671</v>
       </c>
       <c r="AJ7" s="57">
         <f ca="1">AI7+1</f>
-        <v>44642</v>
+        <v>44672</v>
       </c>
       <c r="AK7" s="57">
         <f ca="1">AJ7+1</f>
-        <v>44643</v>
+        <v>44673</v>
       </c>
       <c r="AL7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44644</v>
+        <v>44674</v>
       </c>
       <c r="AM7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44645</v>
+        <v>44675</v>
       </c>
       <c r="AN7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44646</v>
+        <v>44676</v>
       </c>
       <c r="AO7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44647</v>
+        <v>44677</v>
       </c>
       <c r="AP7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44648</v>
+        <v>44678</v>
       </c>
       <c r="AQ7" s="57">
         <f ca="1">AP7+1</f>
-        <v>44649</v>
+        <v>44679</v>
       </c>
       <c r="AR7" s="57">
         <f ca="1">AQ7+1</f>
-        <v>44650</v>
+        <v>44680</v>
       </c>
       <c r="AS7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="AT7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="AU7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44653</v>
+        <v>44683</v>
       </c>
       <c r="AV7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44654</v>
+        <v>44684</v>
       </c>
       <c r="AW7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44655</v>
+        <v>44685</v>
       </c>
       <c r="AX7" s="57">
         <f ca="1">AW7+1</f>
-        <v>44656</v>
+        <v>44686</v>
       </c>
       <c r="AY7" s="57">
         <f ca="1">AX7+1</f>
-        <v>44657</v>
+        <v>44687</v>
       </c>
       <c r="AZ7" s="57">
         <f t="shared" ref="AZ7:BD7" ca="1" si="1">AY7+1</f>
-        <v>44658</v>
+        <v>44688</v>
       </c>
       <c r="BA7" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>44659</v>
+        <v>44689</v>
       </c>
       <c r="BB7" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>44660</v>
+        <v>44690</v>
       </c>
       <c r="BC7" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>44661</v>
+        <v>44691</v>
       </c>
       <c r="BD7" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>44662</v>
+        <v>44692</v>
       </c>
       <c r="BE7" s="57">
         <f ca="1">BD7+1</f>
-        <v>44663</v>
+        <v>44693</v>
       </c>
       <c r="BF7" s="57">
         <f ca="1">BE7+1</f>
-        <v>44664</v>
+        <v>44694</v>
       </c>
       <c r="BG7" s="57">
         <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
-        <v>44665</v>
+        <v>44695</v>
       </c>
       <c r="BH7" s="57">
         <f t="shared" ca="1" si="2"/>
-        <v>44666</v>
+        <v>44696</v>
       </c>
       <c r="BI7" s="57">
         <f t="shared" ca="1" si="2"/>
-        <v>44667</v>
+        <v>44697</v>
       </c>
       <c r="BJ7" s="57">
         <f t="shared" ca="1" si="2"/>
-        <v>44668</v>
+        <v>44698</v>
       </c>
       <c r="BK7" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>44669</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="8" spans="1:63" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -12929,19 +12939,19 @@
       <c r="G8" s="74"/>
       <c r="H8" s="58" t="str">
         <f ca="1">LEFT(TEXT(H7,"ddd"),1)</f>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="I8" s="55" t="str">
         <f ca="1">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="J8" s="55" t="str">
         <f ca="1">LEFT(TEXT(J7,"ddd"),1)</f>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="K8" s="55" t="str">
         <f t="shared" ref="K8:BK8" ca="1" si="3">LEFT(TEXT(K7,"ddd"),1)</f>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="L8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12949,27 +12959,27 @@
       </c>
       <c r="M8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="N8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="O8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="P8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="Q8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="R8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="S8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12977,27 +12987,27 @@
       </c>
       <c r="T8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="U8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="V8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="W8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="X8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="Y8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="Z8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13005,27 +13015,27 @@
       </c>
       <c r="AA8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AB8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AC8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AD8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AE8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AF8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AG8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13033,27 +13043,27 @@
       </c>
       <c r="AH8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AI8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AJ8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AK8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AL8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AM8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AN8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13061,27 +13071,27 @@
       </c>
       <c r="AO8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AP8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AQ8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AR8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AS8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AT8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AU8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13089,27 +13099,27 @@
       </c>
       <c r="AV8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AW8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AX8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AY8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AZ8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BA8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BB8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13117,27 +13127,27 @@
       </c>
       <c r="BC8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BD8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BE8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BF8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BG8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BH8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BI8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13145,11 +13155,11 @@
       </c>
       <c r="BJ8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BK8" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
     </row>
     <row r="9" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13461,7 +13471,7 @@
       </c>
       <c r="E11" s="109">
         <f ca="1">TODAY()</f>
-        <v>44604</v>
+        <v>44634</v>
       </c>
       <c r="F11" s="17">
         <v>3</v>
@@ -13701,7 +13711,7 @@
       <c r="D12" s="112"/>
       <c r="E12" s="109">
         <f ca="1">TODAY()+5</f>
-        <v>44609</v>
+        <v>44639</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -13943,7 +13953,7 @@
       </c>
       <c r="E13" s="109">
         <f ca="1">TODAY()-3</f>
-        <v>44601</v>
+        <v>44631</v>
       </c>
       <c r="F13" s="17">
         <v>10</v>
@@ -14183,7 +14193,7 @@
       <c r="D14" s="112"/>
       <c r="E14" s="109">
         <f ca="1">TODAY()+20</f>
-        <v>44624</v>
+        <v>44654</v>
       </c>
       <c r="F14" s="17">
         <v>1</v>
@@ -14425,7 +14435,7 @@
       </c>
       <c r="E15" s="109">
         <f ca="1">TODAY()+6</f>
-        <v>44610</v>
+        <v>44640</v>
       </c>
       <c r="F15" s="17">
         <v>6</v>
@@ -14902,7 +14912,7 @@
       </c>
       <c r="E17" s="109">
         <f ca="1">TODAY()+6</f>
-        <v>44610</v>
+        <v>44640</v>
       </c>
       <c r="F17" s="17">
         <v>13</v>
@@ -15144,7 +15154,7 @@
       </c>
       <c r="E18" s="109">
         <f ca="1">TODAY()+7</f>
-        <v>44611</v>
+        <v>44641</v>
       </c>
       <c r="F18" s="17">
         <v>9</v>
@@ -15386,7 +15396,7 @@
       </c>
       <c r="E19" s="109">
         <f ca="1">TODAY()+15</f>
-        <v>44619</v>
+        <v>44649</v>
       </c>
       <c r="F19" s="17">
         <v>11</v>
@@ -15626,7 +15636,7 @@
       <c r="D20" s="112"/>
       <c r="E20" s="109">
         <f ca="1">TODAY()+24</f>
-        <v>44628</v>
+        <v>44658</v>
       </c>
       <c r="F20" s="17">
         <v>1</v>
@@ -15866,7 +15876,7 @@
       <c r="D21" s="111"/>
       <c r="E21" s="109">
         <f ca="1">TODAY()+25</f>
-        <v>44629</v>
+        <v>44659</v>
       </c>
       <c r="F21" s="17">
         <v>24</v>
@@ -16341,7 +16351,7 @@
       <c r="D23" s="111"/>
       <c r="E23" s="109">
         <f ca="1">TODAY()+15</f>
-        <v>44619</v>
+        <v>44649</v>
       </c>
       <c r="F23" s="17">
         <v>4</v>
@@ -16581,7 +16591,7 @@
       <c r="D24" s="112"/>
       <c r="E24" s="109">
         <f ca="1">TODAY()+19</f>
-        <v>44623</v>
+        <v>44653</v>
       </c>
       <c r="F24" s="17">
         <v>14</v>
@@ -16821,7 +16831,7 @@
       <c r="D25" s="111"/>
       <c r="E25" s="109">
         <f ca="1">TODAY()+35</f>
-        <v>44639</v>
+        <v>44669</v>
       </c>
       <c r="F25" s="17">
         <v>6</v>
@@ -17061,7 +17071,7 @@
       <c r="D26" s="112"/>
       <c r="E26" s="109">
         <f ca="1">TODAY()+48</f>
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="F26" s="17">
         <v>3</v>
@@ -17301,7 +17311,7 @@
       <c r="D27" s="111"/>
       <c r="E27" s="109">
         <f ca="1">TODAY()+40</f>
-        <v>44644</v>
+        <v>44674</v>
       </c>
       <c r="F27" s="17">
         <v>19</v>
@@ -17776,7 +17786,7 @@
       <c r="D29" s="111"/>
       <c r="E29" s="109">
         <f ca="1">TODAY()+37</f>
-        <v>44641</v>
+        <v>44671</v>
       </c>
       <c r="F29" s="17">
         <v>15</v>
@@ -18016,7 +18026,7 @@
       <c r="D30" s="112"/>
       <c r="E30" s="109">
         <f ca="1">TODAY()+29</f>
-        <v>44633</v>
+        <v>44663</v>
       </c>
       <c r="F30" s="17">
         <v>5</v>
@@ -18256,7 +18266,7 @@
       <c r="D31" s="111"/>
       <c r="E31" s="109">
         <f ca="1">TODAY()+80</f>
-        <v>44684</v>
+        <v>44714</v>
       </c>
       <c r="F31" s="17">
         <v>5</v>
@@ -19639,7 +19649,7 @@
       </c>
       <c r="C5" s="51">
         <f ca="1">IFERROR(IF(MIN(Marcos[Início])=0,TODAY(),MIN(Marcos[Início])),TODAY())</f>
-        <v>44601</v>
+        <v>44631</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="68"/>
@@ -19722,7 +19732,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="84" t="str">
         <f ca="1">TEXT(H7,"mmmm")</f>
-        <v>fevereiro</v>
+        <v>março</v>
       </c>
       <c r="I6" s="84"/>
       <c r="J6" s="84"/>
@@ -19732,7 +19742,7 @@
       <c r="N6" s="29"/>
       <c r="O6" s="29" t="str">
         <f ca="1">IF(TEXT(O7,"mmmm")=H6,"",TEXT(O7,"mmmm"))</f>
-        <v>março</v>
+        <v/>
       </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -19742,7 +19752,7 @@
       <c r="U6" s="29"/>
       <c r="V6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(V7,"mmmm")=O6,TEXT(V7,"mmmm")=H6),"",TEXT(V7,"mmmm"))</f>
-        <v/>
+        <v>abril</v>
       </c>
       <c r="W6" s="29"/>
       <c r="X6" s="29"/>
@@ -19782,7 +19792,7 @@
       <c r="AW6" s="29"/>
       <c r="AX6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(AX7,"mmmm")=AQ6,TEXT(AX7,"mmmm")=AJ6,TEXT(AX7,"mmmm")=AC6,TEXT(AX7,"mmmm")=V6),"",TEXT(AX7,"mmmm"))</f>
-        <v>abril</v>
+        <v>maio</v>
       </c>
       <c r="AY6" s="29"/>
       <c r="AZ6" s="29"/>
@@ -19810,227 +19820,227 @@
       <c r="G7" s="23"/>
       <c r="H7" s="59">
         <f ca="1">IFERROR(Início_do_Projeto+Incremento_de_Rolagem,TODAY())</f>
-        <v>44614</v>
+        <v>44644</v>
       </c>
       <c r="I7" s="61">
         <f ca="1">H7+1</f>
-        <v>44615</v>
+        <v>44645</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>44616</v>
+        <v>44646</v>
       </c>
       <c r="K7" s="61">
         <f ca="1">J7+1</f>
-        <v>44617</v>
+        <v>44647</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44618</v>
+        <v>44648</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44619</v>
+        <v>44649</v>
       </c>
       <c r="N7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44620</v>
+        <v>44650</v>
       </c>
       <c r="O7" s="61">
         <f ca="1">N7+1</f>
-        <v>44621</v>
+        <v>44651</v>
       </c>
       <c r="P7" s="61">
         <f ca="1">O7+1</f>
-        <v>44622</v>
+        <v>44652</v>
       </c>
       <c r="Q7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44623</v>
+        <v>44653</v>
       </c>
       <c r="R7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44624</v>
+        <v>44654</v>
       </c>
       <c r="S7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44625</v>
+        <v>44655</v>
       </c>
       <c r="T7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44626</v>
+        <v>44656</v>
       </c>
       <c r="U7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44627</v>
+        <v>44657</v>
       </c>
       <c r="V7" s="61">
         <f ca="1">U7+1</f>
-        <v>44628</v>
+        <v>44658</v>
       </c>
       <c r="W7" s="61">
         <f ca="1">V7+1</f>
-        <v>44629</v>
+        <v>44659</v>
       </c>
       <c r="X7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44630</v>
+        <v>44660</v>
       </c>
       <c r="Y7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44631</v>
+        <v>44661</v>
       </c>
       <c r="Z7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44632</v>
+        <v>44662</v>
       </c>
       <c r="AA7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44633</v>
+        <v>44663</v>
       </c>
       <c r="AB7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44634</v>
+        <v>44664</v>
       </c>
       <c r="AC7" s="61">
         <f ca="1">AB7+1</f>
-        <v>44635</v>
+        <v>44665</v>
       </c>
       <c r="AD7" s="61">
         <f ca="1">AC7+1</f>
-        <v>44636</v>
+        <v>44666</v>
       </c>
       <c r="AE7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44637</v>
+        <v>44667</v>
       </c>
       <c r="AF7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44638</v>
+        <v>44668</v>
       </c>
       <c r="AG7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44639</v>
+        <v>44669</v>
       </c>
       <c r="AH7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44640</v>
+        <v>44670</v>
       </c>
       <c r="AI7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44641</v>
+        <v>44671</v>
       </c>
       <c r="AJ7" s="61">
         <f ca="1">AI7+1</f>
-        <v>44642</v>
+        <v>44672</v>
       </c>
       <c r="AK7" s="61">
         <f ca="1">AJ7+1</f>
-        <v>44643</v>
+        <v>44673</v>
       </c>
       <c r="AL7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44644</v>
+        <v>44674</v>
       </c>
       <c r="AM7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44645</v>
+        <v>44675</v>
       </c>
       <c r="AN7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44646</v>
+        <v>44676</v>
       </c>
       <c r="AO7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44647</v>
+        <v>44677</v>
       </c>
       <c r="AP7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44648</v>
+        <v>44678</v>
       </c>
       <c r="AQ7" s="61">
         <f ca="1">AP7+1</f>
-        <v>44649</v>
+        <v>44679</v>
       </c>
       <c r="AR7" s="61">
         <f ca="1">AQ7+1</f>
-        <v>44650</v>
+        <v>44680</v>
       </c>
       <c r="AS7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="AT7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="AU7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44653</v>
+        <v>44683</v>
       </c>
       <c r="AV7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44654</v>
+        <v>44684</v>
       </c>
       <c r="AW7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44655</v>
+        <v>44685</v>
       </c>
       <c r="AX7" s="61">
         <f ca="1">AW7+1</f>
-        <v>44656</v>
+        <v>44686</v>
       </c>
       <c r="AY7" s="61">
         <f ca="1">AX7+1</f>
-        <v>44657</v>
+        <v>44687</v>
       </c>
       <c r="AZ7" s="61">
         <f t="shared" ref="AZ7:BD7" ca="1" si="1">AY7+1</f>
-        <v>44658</v>
+        <v>44688</v>
       </c>
       <c r="BA7" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>44659</v>
+        <v>44689</v>
       </c>
       <c r="BB7" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>44660</v>
+        <v>44690</v>
       </c>
       <c r="BC7" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>44661</v>
+        <v>44691</v>
       </c>
       <c r="BD7" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>44662</v>
+        <v>44692</v>
       </c>
       <c r="BE7" s="61">
         <f ca="1">BD7+1</f>
-        <v>44663</v>
+        <v>44693</v>
       </c>
       <c r="BF7" s="61">
         <f ca="1">BE7+1</f>
-        <v>44664</v>
+        <v>44694</v>
       </c>
       <c r="BG7" s="61">
         <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
-        <v>44665</v>
+        <v>44695</v>
       </c>
       <c r="BH7" s="61">
         <f t="shared" ca="1" si="2"/>
-        <v>44666</v>
+        <v>44696</v>
       </c>
       <c r="BI7" s="61">
         <f t="shared" ca="1" si="2"/>
-        <v>44667</v>
+        <v>44697</v>
       </c>
       <c r="BJ7" s="61">
         <f t="shared" ca="1" si="2"/>
-        <v>44668</v>
+        <v>44698</v>
       </c>
       <c r="BK7" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>44669</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="8" spans="1:63" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -20053,19 +20063,19 @@
       <c r="G8" s="64"/>
       <c r="H8" s="63" t="str">
         <f ca="1">LEFT(TEXT(H7,"ddd"),1)</f>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="I8" s="62" t="str">
         <f ca="1">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="J8" s="62" t="str">
         <f ca="1">LEFT(TEXT(J7,"ddd"),1)</f>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="K8" s="62" t="str">
         <f t="shared" ref="K8:AM8" ca="1" si="3">LEFT(TEXT(K7,"ddd"),1)</f>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="L8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20073,27 +20083,27 @@
       </c>
       <c r="M8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="N8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="O8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="P8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="Q8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="R8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="S8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20101,27 +20111,27 @@
       </c>
       <c r="T8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="U8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="V8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="W8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="X8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="Y8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="Z8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20129,27 +20139,27 @@
       </c>
       <c r="AA8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AB8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AC8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AD8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AE8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AF8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AG8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20157,27 +20167,27 @@
       </c>
       <c r="AH8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AI8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AJ8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AK8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AL8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AM8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AN8" s="62" t="str">
         <f t="shared" ref="AN8:BK8" ca="1" si="4">LEFT(TEXT(AN7,"ddd"),1)</f>
@@ -20185,27 +20195,27 @@
       </c>
       <c r="AO8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AP8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AQ8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AR8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AS8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AT8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AU8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -20213,27 +20223,27 @@
       </c>
       <c r="AV8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AW8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AX8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AY8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AZ8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BA8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BB8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -20241,27 +20251,27 @@
       </c>
       <c r="BC8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BD8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BE8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BF8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BG8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BH8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BI8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -20269,11 +20279,11 @@
       </c>
       <c r="BJ8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BK8" s="60" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>q</v>
       </c>
     </row>
     <row r="9" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -20586,7 +20596,7 @@
       </c>
       <c r="E11" s="109">
         <f ca="1">TODAY()</f>
-        <v>44604</v>
+        <v>44634</v>
       </c>
       <c r="F11" s="17">
         <v>3</v>
@@ -20826,7 +20836,7 @@
       <c r="D12" s="113"/>
       <c r="E12" s="109">
         <f ca="1">TODAY()+5</f>
-        <v>44609</v>
+        <v>44639</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -21068,7 +21078,7 @@
       </c>
       <c r="E13" s="109">
         <f ca="1">TODAY()-3</f>
-        <v>44601</v>
+        <v>44631</v>
       </c>
       <c r="F13" s="17">
         <v>10</v>
@@ -21308,7 +21318,7 @@
       <c r="D14" s="113"/>
       <c r="E14" s="109">
         <f ca="1">TODAY()+20</f>
-        <v>44624</v>
+        <v>44654</v>
       </c>
       <c r="F14" s="17">
         <v>1</v>
@@ -21550,7 +21560,7 @@
       </c>
       <c r="E15" s="109">
         <f ca="1">TODAY()+6</f>
-        <v>44610</v>
+        <v>44640</v>
       </c>
       <c r="F15" s="17">
         <v>6</v>
@@ -22027,7 +22037,7 @@
       </c>
       <c r="E17" s="109">
         <f ca="1">TODAY()+6</f>
-        <v>44610</v>
+        <v>44640</v>
       </c>
       <c r="F17" s="17">
         <v>13</v>
@@ -22269,7 +22279,7 @@
       </c>
       <c r="E18" s="109">
         <f ca="1">TODAY()+7</f>
-        <v>44611</v>
+        <v>44641</v>
       </c>
       <c r="F18" s="17">
         <v>9</v>
@@ -22511,7 +22521,7 @@
       </c>
       <c r="E19" s="109">
         <f ca="1">TODAY()+15</f>
-        <v>44619</v>
+        <v>44649</v>
       </c>
       <c r="F19" s="17">
         <v>11</v>
@@ -22751,7 +22761,7 @@
       <c r="D20" s="113"/>
       <c r="E20" s="109">
         <f ca="1">TODAY()+24</f>
-        <v>44628</v>
+        <v>44658</v>
       </c>
       <c r="F20" s="17">
         <v>1</v>
@@ -22991,7 +23001,7 @@
       <c r="D21" s="113"/>
       <c r="E21" s="109">
         <f ca="1">TODAY()+25</f>
-        <v>44629</v>
+        <v>44659</v>
       </c>
       <c r="F21" s="17">
         <v>24</v>
@@ -23466,7 +23476,7 @@
       <c r="D23" s="113"/>
       <c r="E23" s="109">
         <f ca="1">TODAY()+15</f>
-        <v>44619</v>
+        <v>44649</v>
       </c>
       <c r="F23" s="17">
         <v>4</v>
@@ -23706,7 +23716,7 @@
       <c r="D24" s="113"/>
       <c r="E24" s="109">
         <f ca="1">TODAY()+19</f>
-        <v>44623</v>
+        <v>44653</v>
       </c>
       <c r="F24" s="17">
         <v>14</v>
@@ -23946,7 +23956,7 @@
       <c r="D25" s="113"/>
       <c r="E25" s="109">
         <f ca="1">TODAY()+35</f>
-        <v>44639</v>
+        <v>44669</v>
       </c>
       <c r="F25" s="17">
         <v>6</v>
@@ -24186,7 +24196,7 @@
       <c r="D26" s="113"/>
       <c r="E26" s="109">
         <f ca="1">TODAY()+48</f>
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="F26" s="17">
         <v>3</v>
@@ -24426,7 +24436,7 @@
       <c r="D27" s="113"/>
       <c r="E27" s="109">
         <f ca="1">TODAY()+40</f>
-        <v>44644</v>
+        <v>44674</v>
       </c>
       <c r="F27" s="17">
         <v>19</v>
@@ -24901,7 +24911,7 @@
       <c r="D29" s="113"/>
       <c r="E29" s="109">
         <f ca="1">TODAY()+37</f>
-        <v>44641</v>
+        <v>44671</v>
       </c>
       <c r="F29" s="17">
         <v>15</v>
@@ -25141,7 +25151,7 @@
       <c r="D30" s="113"/>
       <c r="E30" s="109">
         <f ca="1">TODAY()+29</f>
-        <v>44633</v>
+        <v>44663</v>
       </c>
       <c r="F30" s="17">
         <v>5</v>
@@ -25381,7 +25391,7 @@
       <c r="D31" s="113"/>
       <c r="E31" s="109">
         <f ca="1">TODAY()+80</f>
-        <v>44684</v>
+        <v>44714</v>
       </c>
       <c r="F31" s="17">
         <v>5</v>

--- a/1.Gestão do Projeto/Gestão de Projetos - SGLV.xlsx
+++ b/1.Gestão do Projeto/Gestão de Projetos - SGLV.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F649F9DD-9DB2-4AE3-B25A-E306E7A12FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3D0E1A-5D3A-4F79-BA84-17474EB8E149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2427,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584EA1F6-5F11-49F0-BC95-54A382E64E25}">
   <dimension ref="A1:BK47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6867,7 +6867,7 @@
         <v>44597</v>
       </c>
       <c r="F25" s="47">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G25" s="33"/>
       <c r="H25" s="32" t="str">
@@ -6898,9 +6898,9 @@
         <f ca="1">IFERROR(IF(LEN(Marcos34[[#This Row],[Dias]])=0,"",IF(AND(N$7=$E25,$F25=1),Marcador_de_Marco,"")),"")</f>
         <v/>
       </c>
-      <c r="O25" s="32" t="str">
+      <c r="O25" s="32">
         <f ca="1">IFERROR(IF(LEN(Marcos34[[#This Row],[Dias]])=0,"",IF(AND(O$7=$E25,$F25=1),Marcador_de_Marco,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P25" s="32" t="str">
         <f ca="1">IFERROR(IF(LEN(Marcos34[[#This Row],[Dias]])=0,"",IF(AND(P$7=$E25,$F25=1),Marcador_de_Marco,"")),"")</f>
@@ -7345,7 +7345,7 @@
         <v>44604</v>
       </c>
       <c r="F27" s="47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="32" t="str">
@@ -7404,9 +7404,9 @@
         <f ca="1">IFERROR(IF(LEN(Marcos34[[#This Row],[Dias]])=0,"",IF(AND(U$7=$E27,$F27=1),Marcador_de_Marco,"")),"")</f>
         <v/>
       </c>
-      <c r="V27" s="32" t="str">
+      <c r="V27" s="32">
         <f ca="1">IFERROR(IF(LEN(Marcos34[[#This Row],[Dias]])=0,"",IF(AND(V$7=$E27,$F27=1),Marcador_de_Marco,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W27" s="32" t="str">
         <f ca="1">IFERROR(IF(LEN(Marcos34[[#This Row],[Dias]])=0,"",IF(AND(W$7=$E27,$F27=1),Marcador_de_Marco,"")),"")</f>
@@ -8058,7 +8058,7 @@
         <v>44611</v>
       </c>
       <c r="F30" s="47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="32" t="str">
@@ -8536,7 +8536,7 @@
         <v>44618</v>
       </c>
       <c r="F32" s="47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="32" t="str">
@@ -8779,7 +8779,7 @@
         <v>44618</v>
       </c>
       <c r="F33" s="47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="32" t="str">
@@ -9022,7 +9022,7 @@
         <v>44618</v>
       </c>
       <c r="F34" s="47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="32" t="str">
@@ -9975,7 +9975,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="109">
-        <v>44622</v>
+        <v>44637</v>
       </c>
       <c r="F38" s="47">
         <v>1</v>
@@ -10449,12 +10449,14 @@
       <c r="C40" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="108"/>
+      <c r="D40" s="108">
+        <v>1</v>
+      </c>
       <c r="E40" s="109">
-        <v>44629</v>
+        <v>44640</v>
       </c>
       <c r="F40" s="47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="32" t="str">
@@ -12575,7 +12577,7 @@
       </c>
       <c r="C5" s="51">
         <f ca="1">IFERROR(IF(MIN(Marcos3[Início])=0,TODAY(),MIN(Marcos3[Início])),TODAY())</f>
-        <v>44631</v>
+        <v>44637</v>
       </c>
       <c r="E5" s="68"/>
       <c r="H5" s="39"/>
@@ -12621,7 +12623,7 @@
       <c r="N6" s="29"/>
       <c r="O6" s="29" t="str">
         <f ca="1">IF(TEXT(O7,"mmmm")=H6,"",TEXT(O7,"mmmm"))</f>
-        <v/>
+        <v>abril</v>
       </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -12631,7 +12633,7 @@
       <c r="U6" s="29"/>
       <c r="V6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(V7,"mmmm")=O6,TEXT(V7,"mmmm")=H6),"",TEXT(V7,"mmmm"))</f>
-        <v>abril</v>
+        <v/>
       </c>
       <c r="W6" s="29"/>
       <c r="X6" s="29"/>
@@ -12661,7 +12663,7 @@
       <c r="AP6" s="29"/>
       <c r="AQ6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(AQ7,"mmmm")=AJ6,TEXT(AQ7,"mmmm")=AC6,TEXT(AQ7,"mmmm")=V6,TEXT(AQ7,"mmmm")=O6),"",TEXT(AQ7,"mmmm"))</f>
-        <v/>
+        <v>maio</v>
       </c>
       <c r="AR6" s="29"/>
       <c r="AS6" s="29"/>
@@ -12671,7 +12673,7 @@
       <c r="AW6" s="29"/>
       <c r="AX6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(AX7,"mmmm")=AQ6,TEXT(AX7,"mmmm")=AJ6,TEXT(AX7,"mmmm")=AC6,TEXT(AX7,"mmmm")=V6),"",TEXT(AX7,"mmmm"))</f>
-        <v>maio</v>
+        <v/>
       </c>
       <c r="AY6" s="29"/>
       <c r="AZ6" s="29"/>
@@ -12696,227 +12698,227 @@
       <c r="G7" s="23"/>
       <c r="H7" s="56">
         <f ca="1">IFERROR(Início_do_Projeto+Incremento_de_Rolagem,TODAY())</f>
-        <v>44644</v>
+        <v>44650</v>
       </c>
       <c r="I7" s="57">
         <f ca="1">H7+1</f>
-        <v>44645</v>
+        <v>44651</v>
       </c>
       <c r="J7" s="57">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>44646</v>
+        <v>44652</v>
       </c>
       <c r="K7" s="57">
         <f ca="1">J7+1</f>
-        <v>44647</v>
+        <v>44653</v>
       </c>
       <c r="L7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44648</v>
+        <v>44654</v>
       </c>
       <c r="M7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44649</v>
+        <v>44655</v>
       </c>
       <c r="N7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44650</v>
+        <v>44656</v>
       </c>
       <c r="O7" s="57">
         <f ca="1">N7+1</f>
-        <v>44651</v>
+        <v>44657</v>
       </c>
       <c r="P7" s="57">
         <f ca="1">O7+1</f>
-        <v>44652</v>
+        <v>44658</v>
       </c>
       <c r="Q7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44653</v>
+        <v>44659</v>
       </c>
       <c r="R7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44654</v>
+        <v>44660</v>
       </c>
       <c r="S7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44655</v>
+        <v>44661</v>
       </c>
       <c r="T7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44656</v>
+        <v>44662</v>
       </c>
       <c r="U7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44657</v>
+        <v>44663</v>
       </c>
       <c r="V7" s="57">
         <f ca="1">U7+1</f>
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="W7" s="57">
         <f ca="1">V7+1</f>
-        <v>44659</v>
+        <v>44665</v>
       </c>
       <c r="X7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44660</v>
+        <v>44666</v>
       </c>
       <c r="Y7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44661</v>
+        <v>44667</v>
       </c>
       <c r="Z7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44662</v>
+        <v>44668</v>
       </c>
       <c r="AA7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44663</v>
+        <v>44669</v>
       </c>
       <c r="AB7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="AC7" s="57">
         <f ca="1">AB7+1</f>
-        <v>44665</v>
+        <v>44671</v>
       </c>
       <c r="AD7" s="57">
         <f ca="1">AC7+1</f>
-        <v>44666</v>
+        <v>44672</v>
       </c>
       <c r="AE7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44667</v>
+        <v>44673</v>
       </c>
       <c r="AF7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44668</v>
+        <v>44674</v>
       </c>
       <c r="AG7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44669</v>
+        <v>44675</v>
       </c>
       <c r="AH7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44670</v>
+        <v>44676</v>
       </c>
       <c r="AI7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44671</v>
+        <v>44677</v>
       </c>
       <c r="AJ7" s="57">
         <f ca="1">AI7+1</f>
-        <v>44672</v>
+        <v>44678</v>
       </c>
       <c r="AK7" s="57">
         <f ca="1">AJ7+1</f>
-        <v>44673</v>
+        <v>44679</v>
       </c>
       <c r="AL7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44674</v>
+        <v>44680</v>
       </c>
       <c r="AM7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44675</v>
+        <v>44681</v>
       </c>
       <c r="AN7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44676</v>
+        <v>44682</v>
       </c>
       <c r="AO7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44677</v>
+        <v>44683</v>
       </c>
       <c r="AP7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44678</v>
+        <v>44684</v>
       </c>
       <c r="AQ7" s="57">
         <f ca="1">AP7+1</f>
-        <v>44679</v>
+        <v>44685</v>
       </c>
       <c r="AR7" s="57">
         <f ca="1">AQ7+1</f>
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="AS7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44681</v>
+        <v>44687</v>
       </c>
       <c r="AT7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44688</v>
       </c>
       <c r="AU7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44683</v>
+        <v>44689</v>
       </c>
       <c r="AV7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44684</v>
+        <v>44690</v>
       </c>
       <c r="AW7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>44685</v>
+        <v>44691</v>
       </c>
       <c r="AX7" s="57">
         <f ca="1">AW7+1</f>
-        <v>44686</v>
+        <v>44692</v>
       </c>
       <c r="AY7" s="57">
         <f ca="1">AX7+1</f>
-        <v>44687</v>
+        <v>44693</v>
       </c>
       <c r="AZ7" s="57">
         <f t="shared" ref="AZ7:BD7" ca="1" si="1">AY7+1</f>
-        <v>44688</v>
+        <v>44694</v>
       </c>
       <c r="BA7" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>44689</v>
+        <v>44695</v>
       </c>
       <c r="BB7" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>44690</v>
+        <v>44696</v>
       </c>
       <c r="BC7" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>44691</v>
+        <v>44697</v>
       </c>
       <c r="BD7" s="57">
         <f t="shared" ca="1" si="1"/>
-        <v>44692</v>
+        <v>44698</v>
       </c>
       <c r="BE7" s="57">
         <f ca="1">BD7+1</f>
-        <v>44693</v>
+        <v>44699</v>
       </c>
       <c r="BF7" s="57">
         <f ca="1">BE7+1</f>
-        <v>44694</v>
+        <v>44700</v>
       </c>
       <c r="BG7" s="57">
         <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
-        <v>44695</v>
+        <v>44701</v>
       </c>
       <c r="BH7" s="57">
         <f t="shared" ca="1" si="2"/>
-        <v>44696</v>
+        <v>44702</v>
       </c>
       <c r="BI7" s="57">
         <f t="shared" ca="1" si="2"/>
-        <v>44697</v>
+        <v>44703</v>
       </c>
       <c r="BJ7" s="57">
         <f t="shared" ca="1" si="2"/>
-        <v>44698</v>
+        <v>44704</v>
       </c>
       <c r="BK7" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>44699</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="8" spans="1:63" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -12943,7 +12945,7 @@
       </c>
       <c r="I8" s="55" t="str">
         <f ca="1">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="J8" s="55" t="str">
         <f ca="1">LEFT(TEXT(J7,"ddd"),1)</f>
@@ -12951,19 +12953,19 @@
       </c>
       <c r="K8" s="55" t="str">
         <f t="shared" ref="K8:BK8" ca="1" si="3">LEFT(TEXT(K7,"ddd"),1)</f>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="L8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="M8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="N8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>t</v>
       </c>
       <c r="O8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12971,7 +12973,7 @@
       </c>
       <c r="P8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="Q8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12979,19 +12981,19 @@
       </c>
       <c r="R8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="S8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="T8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="U8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>t</v>
       </c>
       <c r="V8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12999,7 +13001,7 @@
       </c>
       <c r="W8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="X8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13007,19 +13009,19 @@
       </c>
       <c r="Y8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="Z8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AA8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AB8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>t</v>
       </c>
       <c r="AC8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13027,7 +13029,7 @@
       </c>
       <c r="AD8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AE8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13035,19 +13037,19 @@
       </c>
       <c r="AF8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AG8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AH8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AI8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>t</v>
       </c>
       <c r="AJ8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13055,7 +13057,7 @@
       </c>
       <c r="AK8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AL8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13063,19 +13065,19 @@
       </c>
       <c r="AM8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AN8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AO8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AP8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>t</v>
       </c>
       <c r="AQ8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13083,7 +13085,7 @@
       </c>
       <c r="AR8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AS8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13091,19 +13093,19 @@
       </c>
       <c r="AT8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AU8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AV8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AW8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>t</v>
       </c>
       <c r="AX8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13111,7 +13113,7 @@
       </c>
       <c r="AY8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AZ8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13119,19 +13121,19 @@
       </c>
       <c r="BA8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BB8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BC8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="BD8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>t</v>
       </c>
       <c r="BE8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13139,7 +13141,7 @@
       </c>
       <c r="BF8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BG8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13147,19 +13149,19 @@
       </c>
       <c r="BH8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BI8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BJ8" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="BK8" s="73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>t</v>
       </c>
     </row>
     <row r="9" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13471,7 +13473,7 @@
       </c>
       <c r="E11" s="109">
         <f ca="1">TODAY()</f>
-        <v>44634</v>
+        <v>44640</v>
       </c>
       <c r="F11" s="17">
         <v>3</v>
@@ -13711,7 +13713,7 @@
       <c r="D12" s="112"/>
       <c r="E12" s="109">
         <f ca="1">TODAY()+5</f>
-        <v>44639</v>
+        <v>44645</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -13953,7 +13955,7 @@
       </c>
       <c r="E13" s="109">
         <f ca="1">TODAY()-3</f>
-        <v>44631</v>
+        <v>44637</v>
       </c>
       <c r="F13" s="17">
         <v>10</v>
@@ -14193,7 +14195,7 @@
       <c r="D14" s="112"/>
       <c r="E14" s="109">
         <f ca="1">TODAY()+20</f>
-        <v>44654</v>
+        <v>44660</v>
       </c>
       <c r="F14" s="17">
         <v>1</v>
@@ -14435,7 +14437,7 @@
       </c>
       <c r="E15" s="109">
         <f ca="1">TODAY()+6</f>
-        <v>44640</v>
+        <v>44646</v>
       </c>
       <c r="F15" s="17">
         <v>6</v>
@@ -14912,7 +14914,7 @@
       </c>
       <c r="E17" s="109">
         <f ca="1">TODAY()+6</f>
-        <v>44640</v>
+        <v>44646</v>
       </c>
       <c r="F17" s="17">
         <v>13</v>
@@ -15154,7 +15156,7 @@
       </c>
       <c r="E18" s="109">
         <f ca="1">TODAY()+7</f>
-        <v>44641</v>
+        <v>44647</v>
       </c>
       <c r="F18" s="17">
         <v>9</v>
@@ -15396,7 +15398,7 @@
       </c>
       <c r="E19" s="109">
         <f ca="1">TODAY()+15</f>
-        <v>44649</v>
+        <v>44655</v>
       </c>
       <c r="F19" s="17">
         <v>11</v>
@@ -15636,7 +15638,7 @@
       <c r="D20" s="112"/>
       <c r="E20" s="109">
         <f ca="1">TODAY()+24</f>
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="F20" s="17">
         <v>1</v>
@@ -15876,7 +15878,7 @@
       <c r="D21" s="111"/>
       <c r="E21" s="109">
         <f ca="1">TODAY()+25</f>
-        <v>44659</v>
+        <v>44665</v>
       </c>
       <c r="F21" s="17">
         <v>24</v>
@@ -16351,7 +16353,7 @@
       <c r="D23" s="111"/>
       <c r="E23" s="109">
         <f ca="1">TODAY()+15</f>
-        <v>44649</v>
+        <v>44655</v>
       </c>
       <c r="F23" s="17">
         <v>4</v>
@@ -16591,7 +16593,7 @@
       <c r="D24" s="112"/>
       <c r="E24" s="109">
         <f ca="1">TODAY()+19</f>
-        <v>44653</v>
+        <v>44659</v>
       </c>
       <c r="F24" s="17">
         <v>14</v>
@@ -16831,7 +16833,7 @@
       <c r="D25" s="111"/>
       <c r="E25" s="109">
         <f ca="1">TODAY()+35</f>
-        <v>44669</v>
+        <v>44675</v>
       </c>
       <c r="F25" s="17">
         <v>6</v>
@@ -17071,7 +17073,7 @@
       <c r="D26" s="112"/>
       <c r="E26" s="109">
         <f ca="1">TODAY()+48</f>
-        <v>44682</v>
+        <v>44688</v>
       </c>
       <c r="F26" s="17">
         <v>3</v>
@@ -17311,7 +17313,7 @@
       <c r="D27" s="111"/>
       <c r="E27" s="109">
         <f ca="1">TODAY()+40</f>
-        <v>44674</v>
+        <v>44680</v>
       </c>
       <c r="F27" s="17">
         <v>19</v>
@@ -17786,7 +17788,7 @@
       <c r="D29" s="111"/>
       <c r="E29" s="109">
         <f ca="1">TODAY()+37</f>
-        <v>44671</v>
+        <v>44677</v>
       </c>
       <c r="F29" s="17">
         <v>15</v>
@@ -18026,7 +18028,7 @@
       <c r="D30" s="112"/>
       <c r="E30" s="109">
         <f ca="1">TODAY()+29</f>
-        <v>44663</v>
+        <v>44669</v>
       </c>
       <c r="F30" s="17">
         <v>5</v>
@@ -18266,7 +18268,7 @@
       <c r="D31" s="111"/>
       <c r="E31" s="109">
         <f ca="1">TODAY()+80</f>
-        <v>44714</v>
+        <v>44720</v>
       </c>
       <c r="F31" s="17">
         <v>5</v>
@@ -19649,7 +19651,7 @@
       </c>
       <c r="C5" s="51">
         <f ca="1">IFERROR(IF(MIN(Marcos[Início])=0,TODAY(),MIN(Marcos[Início])),TODAY())</f>
-        <v>44631</v>
+        <v>44637</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="68"/>
@@ -19742,7 +19744,7 @@
       <c r="N6" s="29"/>
       <c r="O6" s="29" t="str">
         <f ca="1">IF(TEXT(O7,"mmmm")=H6,"",TEXT(O7,"mmmm"))</f>
-        <v/>
+        <v>abril</v>
       </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -19752,7 +19754,7 @@
       <c r="U6" s="29"/>
       <c r="V6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(V7,"mmmm")=O6,TEXT(V7,"mmmm")=H6),"",TEXT(V7,"mmmm"))</f>
-        <v>abril</v>
+        <v/>
       </c>
       <c r="W6" s="29"/>
       <c r="X6" s="29"/>
@@ -19782,7 +19784,7 @@
       <c r="AP6" s="29"/>
       <c r="AQ6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(AQ7,"mmmm")=AJ6,TEXT(AQ7,"mmmm")=AC6,TEXT(AQ7,"mmmm")=V6,TEXT(AQ7,"mmmm")=O6),"",TEXT(AQ7,"mmmm"))</f>
-        <v/>
+        <v>maio</v>
       </c>
       <c r="AR6" s="29"/>
       <c r="AS6" s="29"/>
@@ -19792,7 +19794,7 @@
       <c r="AW6" s="29"/>
       <c r="AX6" s="29" t="str">
         <f ca="1">IF(OR(TEXT(AX7,"mmmm")=AQ6,TEXT(AX7,"mmmm")=AJ6,TEXT(AX7,"mmmm")=AC6,TEXT(AX7,"mmmm")=V6),"",TEXT(AX7,"mmmm"))</f>
-        <v>maio</v>
+        <v/>
       </c>
       <c r="AY6" s="29"/>
       <c r="AZ6" s="29"/>
@@ -19820,227 +19822,227 @@
       <c r="G7" s="23"/>
       <c r="H7" s="59">
         <f ca="1">IFERROR(Início_do_Projeto+Incremento_de_Rolagem,TODAY())</f>
-        <v>44644</v>
+        <v>44650</v>
       </c>
       <c r="I7" s="61">
         <f ca="1">H7+1</f>
-        <v>44645</v>
+        <v>44651</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>44646</v>
+        <v>44652</v>
       </c>
       <c r="K7" s="61">
         <f ca="1">J7+1</f>
-        <v>44647</v>
+        <v>44653</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44648</v>
+        <v>44654</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44649</v>
+        <v>44655</v>
       </c>
       <c r="N7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44650</v>
+        <v>44656</v>
       </c>
       <c r="O7" s="61">
         <f ca="1">N7+1</f>
-        <v>44651</v>
+        <v>44657</v>
       </c>
       <c r="P7" s="61">
         <f ca="1">O7+1</f>
-        <v>44652</v>
+        <v>44658</v>
       </c>
       <c r="Q7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44653</v>
+        <v>44659</v>
       </c>
       <c r="R7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44654</v>
+        <v>44660</v>
       </c>
       <c r="S7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44655</v>
+        <v>44661</v>
       </c>
       <c r="T7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44656</v>
+        <v>44662</v>
       </c>
       <c r="U7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44657</v>
+        <v>44663</v>
       </c>
       <c r="V7" s="61">
         <f ca="1">U7+1</f>
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="W7" s="61">
         <f ca="1">V7+1</f>
-        <v>44659</v>
+        <v>44665</v>
       </c>
       <c r="X7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44660</v>
+        <v>44666</v>
       </c>
       <c r="Y7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44661</v>
+        <v>44667</v>
       </c>
       <c r="Z7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44662</v>
+        <v>44668</v>
       </c>
       <c r="AA7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44663</v>
+        <v>44669</v>
       </c>
       <c r="AB7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="AC7" s="61">
         <f ca="1">AB7+1</f>
-        <v>44665</v>
+        <v>44671</v>
       </c>
       <c r="AD7" s="61">
         <f ca="1">AC7+1</f>
-        <v>44666</v>
+        <v>44672</v>
       </c>
       <c r="AE7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44667</v>
+        <v>44673</v>
       </c>
       <c r="AF7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44668</v>
+        <v>44674</v>
       </c>
       <c r="AG7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44669</v>
+        <v>44675</v>
       </c>
       <c r="AH7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44670</v>
+        <v>44676</v>
       </c>
       <c r="AI7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44671</v>
+        <v>44677</v>
       </c>
       <c r="AJ7" s="61">
         <f ca="1">AI7+1</f>
-        <v>44672</v>
+        <v>44678</v>
       </c>
       <c r="AK7" s="61">
         <f ca="1">AJ7+1</f>
-        <v>44673</v>
+        <v>44679</v>
       </c>
       <c r="AL7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44674</v>
+        <v>44680</v>
       </c>
       <c r="AM7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44675</v>
+        <v>44681</v>
       </c>
       <c r="AN7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44676</v>
+        <v>44682</v>
       </c>
       <c r="AO7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44677</v>
+        <v>44683</v>
       </c>
       <c r="AP7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44678</v>
+        <v>44684</v>
       </c>
       <c r="AQ7" s="61">
         <f ca="1">AP7+1</f>
-        <v>44679</v>
+        <v>44685</v>
       </c>
       <c r="AR7" s="61">
         <f ca="1">AQ7+1</f>
-        <v>44680</v>
+        <v>44686</v>
       </c>
       <c r="AS7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44681</v>
+        <v>44687</v>
       </c>
       <c r="AT7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44688</v>
       </c>
       <c r="AU7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44683</v>
+        <v>44689</v>
       </c>
       <c r="AV7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44684</v>
+        <v>44690</v>
       </c>
       <c r="AW7" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>44685</v>
+        <v>44691</v>
       </c>
       <c r="AX7" s="61">
         <f ca="1">AW7+1</f>
-        <v>44686</v>
+        <v>44692</v>
       </c>
       <c r="AY7" s="61">
         <f ca="1">AX7+1</f>
-        <v>44687</v>
+        <v>44693</v>
       </c>
       <c r="AZ7" s="61">
         <f t="shared" ref="AZ7:BD7" ca="1" si="1">AY7+1</f>
-        <v>44688</v>
+        <v>44694</v>
       </c>
       <c r="BA7" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>44689</v>
+        <v>44695</v>
       </c>
       <c r="BB7" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>44690</v>
+        <v>44696</v>
       </c>
       <c r="BC7" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>44691</v>
+        <v>44697</v>
       </c>
       <c r="BD7" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>44692</v>
+        <v>44698</v>
       </c>
       <c r="BE7" s="61">
         <f ca="1">BD7+1</f>
-        <v>44693</v>
+        <v>44699</v>
       </c>
       <c r="BF7" s="61">
         <f ca="1">BE7+1</f>
-        <v>44694</v>
+        <v>44700</v>
       </c>
       <c r="BG7" s="61">
         <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
-        <v>44695</v>
+        <v>44701</v>
       </c>
       <c r="BH7" s="61">
         <f t="shared" ca="1" si="2"/>
-        <v>44696</v>
+        <v>44702</v>
       </c>
       <c r="BI7" s="61">
         <f t="shared" ca="1" si="2"/>
-        <v>44697</v>
+        <v>44703</v>
       </c>
       <c r="BJ7" s="61">
         <f t="shared" ca="1" si="2"/>
-        <v>44698</v>
+        <v>44704</v>
       </c>
       <c r="BK7" s="30">
         <f t="shared" ca="1" si="2"/>
-        <v>44699</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="8" spans="1:63" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -20067,7 +20069,7 @@
       </c>
       <c r="I8" s="62" t="str">
         <f ca="1">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="J8" s="62" t="str">
         <f ca="1">LEFT(TEXT(J7,"ddd"),1)</f>
@@ -20075,19 +20077,19 @@
       </c>
       <c r="K8" s="62" t="str">
         <f t="shared" ref="K8:AM8" ca="1" si="3">LEFT(TEXT(K7,"ddd"),1)</f>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="L8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="M8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="N8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>t</v>
       </c>
       <c r="O8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20095,7 +20097,7 @@
       </c>
       <c r="P8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="Q8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20103,19 +20105,19 @@
       </c>
       <c r="R8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="S8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="T8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="U8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>t</v>
       </c>
       <c r="V8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20123,7 +20125,7 @@
       </c>
       <c r="W8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="X8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20131,19 +20133,19 @@
       </c>
       <c r="Y8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="Z8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AA8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AB8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>t</v>
       </c>
       <c r="AC8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20151,7 +20153,7 @@
       </c>
       <c r="AD8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AE8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20159,19 +20161,19 @@
       </c>
       <c r="AF8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AG8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AH8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AI8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>t</v>
       </c>
       <c r="AJ8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20179,7 +20181,7 @@
       </c>
       <c r="AK8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AL8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20187,19 +20189,19 @@
       </c>
       <c r="AM8" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AN8" s="62" t="str">
         <f t="shared" ref="AN8:BK8" ca="1" si="4">LEFT(TEXT(AN7,"ddd"),1)</f>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AO8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AP8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>t</v>
       </c>
       <c r="AQ8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -20207,7 +20209,7 @@
       </c>
       <c r="AR8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AS8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -20215,19 +20217,19 @@
       </c>
       <c r="AT8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AU8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AV8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AW8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>t</v>
       </c>
       <c r="AX8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -20235,7 +20237,7 @@
       </c>
       <c r="AY8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AZ8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -20243,19 +20245,19 @@
       </c>
       <c r="BA8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BB8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BC8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="BD8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>t</v>
       </c>
       <c r="BE8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -20263,7 +20265,7 @@
       </c>
       <c r="BF8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BG8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -20271,19 +20273,19 @@
       </c>
       <c r="BH8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BI8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BJ8" s="62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="BK8" s="60" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>q</v>
+        <v>t</v>
       </c>
     </row>
     <row r="9" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -20596,7 +20598,7 @@
       </c>
       <c r="E11" s="109">
         <f ca="1">TODAY()</f>
-        <v>44634</v>
+        <v>44640</v>
       </c>
       <c r="F11" s="17">
         <v>3</v>
@@ -20836,7 +20838,7 @@
       <c r="D12" s="113"/>
       <c r="E12" s="109">
         <f ca="1">TODAY()+5</f>
-        <v>44639</v>
+        <v>44645</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -21078,7 +21080,7 @@
       </c>
       <c r="E13" s="109">
         <f ca="1">TODAY()-3</f>
-        <v>44631</v>
+        <v>44637</v>
       </c>
       <c r="F13" s="17">
         <v>10</v>
@@ -21318,7 +21320,7 @@
       <c r="D14" s="113"/>
       <c r="E14" s="109">
         <f ca="1">TODAY()+20</f>
-        <v>44654</v>
+        <v>44660</v>
       </c>
       <c r="F14" s="17">
         <v>1</v>
@@ -21560,7 +21562,7 @@
       </c>
       <c r="E15" s="109">
         <f ca="1">TODAY()+6</f>
-        <v>44640</v>
+        <v>44646</v>
       </c>
       <c r="F15" s="17">
         <v>6</v>
@@ -22037,7 +22039,7 @@
       </c>
       <c r="E17" s="109">
         <f ca="1">TODAY()+6</f>
-        <v>44640</v>
+        <v>44646</v>
       </c>
       <c r="F17" s="17">
         <v>13</v>
@@ -22279,7 +22281,7 @@
       </c>
       <c r="E18" s="109">
         <f ca="1">TODAY()+7</f>
-        <v>44641</v>
+        <v>44647</v>
       </c>
       <c r="F18" s="17">
         <v>9</v>
@@ -22521,7 +22523,7 @@
       </c>
       <c r="E19" s="109">
         <f ca="1">TODAY()+15</f>
-        <v>44649</v>
+        <v>44655</v>
       </c>
       <c r="F19" s="17">
         <v>11</v>
@@ -22761,7 +22763,7 @@
       <c r="D20" s="113"/>
       <c r="E20" s="109">
         <f ca="1">TODAY()+24</f>
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="F20" s="17">
         <v>1</v>
@@ -23001,7 +23003,7 @@
       <c r="D21" s="113"/>
       <c r="E21" s="109">
         <f ca="1">TODAY()+25</f>
-        <v>44659</v>
+        <v>44665</v>
       </c>
       <c r="F21" s="17">
         <v>24</v>
@@ -23476,7 +23478,7 @@
       <c r="D23" s="113"/>
       <c r="E23" s="109">
         <f ca="1">TODAY()+15</f>
-        <v>44649</v>
+        <v>44655</v>
       </c>
       <c r="F23" s="17">
         <v>4</v>
@@ -23716,7 +23718,7 @@
       <c r="D24" s="113"/>
       <c r="E24" s="109">
         <f ca="1">TODAY()+19</f>
-        <v>44653</v>
+        <v>44659</v>
       </c>
       <c r="F24" s="17">
         <v>14</v>
@@ -23956,7 +23958,7 @@
       <c r="D25" s="113"/>
       <c r="E25" s="109">
         <f ca="1">TODAY()+35</f>
-        <v>44669</v>
+        <v>44675</v>
       </c>
       <c r="F25" s="17">
         <v>6</v>
@@ -24196,7 +24198,7 @@
       <c r="D26" s="113"/>
       <c r="E26" s="109">
         <f ca="1">TODAY()+48</f>
-        <v>44682</v>
+        <v>44688</v>
       </c>
       <c r="F26" s="17">
         <v>3</v>
@@ -24436,7 +24438,7 @@
       <c r="D27" s="113"/>
       <c r="E27" s="109">
         <f ca="1">TODAY()+40</f>
-        <v>44674</v>
+        <v>44680</v>
       </c>
       <c r="F27" s="17">
         <v>19</v>
@@ -24911,7 +24913,7 @@
       <c r="D29" s="113"/>
       <c r="E29" s="109">
         <f ca="1">TODAY()+37</f>
-        <v>44671</v>
+        <v>44677</v>
       </c>
       <c r="F29" s="17">
         <v>15</v>
@@ -25151,7 +25153,7 @@
       <c r="D30" s="113"/>
       <c r="E30" s="109">
         <f ca="1">TODAY()+29</f>
-        <v>44663</v>
+        <v>44669</v>
       </c>
       <c r="F30" s="17">
         <v>5</v>
@@ -25391,7 +25393,7 @@
       <c r="D31" s="113"/>
       <c r="E31" s="109">
         <f ca="1">TODAY()+80</f>
-        <v>44714</v>
+        <v>44720</v>
       </c>
       <c r="F31" s="17">
         <v>5</v>
